--- a/data/input/CalibratorScenarios.xlsx
+++ b/data/input/CalibratorScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/CovidContagionCalibrator/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EEC917-2A4C-AF4A-BC98-C38A616AD787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5D85B-E7D2-724F-BD97-81F9AF95625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35580" yWindow="-6900" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
